--- a/Brain/Azure/Microsoft Azure Fundamentals/Describe Azure architecture and services/Describe Azure storage services.xlsx
+++ b/Brain/Azure/Microsoft Azure Fundamentals/Describe Azure architecture and services/Describe Azure storage services.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\Study\Brain\Azure\Microsoft Azure Fundamentals\Describe Azure architecture and services\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1A46FF5-7728-442C-8CDE-415D6E14CD4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E734F06F-DB68-4E32-B841-F6F4CC8982A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4875" yWindow="2895" windowWidth="17460" windowHeight="11295" firstSheet="3" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Describe Azure storage accounts" sheetId="2" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="129">
   <si>
     <t>such as long-term backups</t>
   </si>
@@ -398,18 +398,48 @@
   </si>
   <si>
     <t>Once you install Azure File Sync on your local Windows server, it will automatically stay bi-directionally synced with your files in Azure.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">azure storage account </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>IaS</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>only standard general-purpose v2 storage account support GZRS</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t> US and Europe can have up to 2PB Storage accounts. All other regions are 500TB</t>
+  </si>
+  <si>
+    <t>Azure files</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PaaS</t>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="6"/>
+      <name val="Calibri"/>
+      <family val="3"/>
+      <charset val="128"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -458,7 +488,7 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>36</xdr:row>
+      <xdr:row>41</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="8580952" cy="5466667"/>
@@ -467,7 +497,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{888D71DC-A8A8-4EF4-A552-2981C4273DA9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -493,6 +523,270 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>331705</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>56726</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="15001875"/>
+          <a:ext cx="13361905" cy="3390476"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>331705</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>56905</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="19050000"/>
+          <a:ext cx="13361905" cy="1961905"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>91</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>331705</xdr:colOff>
+      <xdr:row>102</xdr:row>
+      <xdr:rowOff>9196</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="21193125"/>
+          <a:ext cx="13361905" cy="2628571"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>103</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>331705</xdr:colOff>
+      <xdr:row>114</xdr:row>
+      <xdr:rowOff>9196</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="24050625"/>
+          <a:ext cx="13361905" cy="2628571"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>18276</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>180774</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7CD388B3-A4B5-4BA1-8817-1FE021D60CCE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9144000" y="7810500"/>
+          <a:ext cx="5504676" cy="1323774"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>207981</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>190262</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="Picture 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2C8B4F83-0211-46E8-B097-38545EBA9A82}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9144000" y="9334500"/>
+          <a:ext cx="11180781" cy="1523762"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -516,7 +810,7 @@
         <xdr:cNvPr id="3" name="Picture 2" descr="Diagram showing the structure used for locally redundant storage.">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{09830FBD-4424-4600-BFAB-5F64E686CB32}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -577,7 +871,7 @@
         <xdr:cNvPr id="4" name="Picture 3" descr="Diagram showing ZRS, with a copy of data stored in each of three availability zones.">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C53C676A-89F7-43EF-2192-331E6F679329}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -638,7 +932,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{41264A73-25C7-0EA7-B17F-CA8F27C54587}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -682,7 +976,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CCD3E58E-351A-4503-A085-5A9106E7D73B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -729,13 +1023,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>104</xdr:row>
+      <xdr:row>105</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>134</xdr:row>
+      <xdr:row>135</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -743,7 +1037,7 @@
         <xdr:cNvPr id="8" name="Picture 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E6A62486-BE9D-FED7-1BEB-C8365868D688}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000008000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -790,13 +1084,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>137</xdr:row>
+      <xdr:row>138</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>313219</xdr:colOff>
-      <xdr:row>151</xdr:row>
+      <xdr:row>152</xdr:row>
       <xdr:rowOff>9125</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -804,7 +1098,7 @@
         <xdr:cNvPr id="10" name="Picture 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DBB77B82-5285-4C7C-8DE3-16E8F6BB5012}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -821,6 +1115,50 @@
         <a:xfrm>
           <a:off x="1219200" y="26098500"/>
           <a:ext cx="8847619" cy="2676125"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>105</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>331705</xdr:colOff>
+      <xdr:row>115</xdr:row>
+      <xdr:rowOff>171131</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Picture 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000009000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11658600" y="25003125"/>
+          <a:ext cx="13361905" cy="2552381"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -852,7 +1190,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{67DD363D-177E-050B-B879-FEB9CB7BDE5E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -896,7 +1234,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B282047C-864C-96D4-047D-D2CCB6B7505B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -940,7 +1278,7 @@
         <xdr:cNvPr id="4" name="Picture 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C83E4E63-5E6C-E473-4461-49E772767A4B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -984,7 +1322,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{46992876-C38E-C040-E7E7-4DDE0BE223E0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1002,6 +1340,50 @@
         <a:xfrm>
           <a:off x="609600" y="17526000"/>
           <a:ext cx="8647619" cy="1295238"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>198457</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>104315</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10972800" y="16192500"/>
+          <a:ext cx="12542857" cy="3676190"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1275,432 +1657,463 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE8CCAC0-94CE-4BB8-A470-75C229817E3B}">
-  <dimension ref="A1:C35"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D81"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="P50" sqref="P50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
+    <row r="5" spans="1:4">
+      <c r="B5" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C3" t="s">
+    <row r="6" spans="1:4">
+      <c r="C6" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C4" t="s">
+    <row r="7" spans="1:4">
+      <c r="C7" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C6" t="s">
+    <row r="9" spans="1:4">
+      <c r="C9" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C7" t="s">
+    <row r="10" spans="1:4">
+      <c r="C10" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C8" t="s">
+    <row r="11" spans="1:4">
+      <c r="C11" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C9" t="s">
+    <row r="12" spans="1:4">
+      <c r="C12" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
+    <row r="14" spans="1:4">
+      <c r="B14" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C12" t="s">
+    <row r="15" spans="1:4">
+      <c r="C15" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C13" t="s">
+    <row r="16" spans="1:4">
+      <c r="C16" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B15" t="s">
+    <row r="17" spans="1:4">
+      <c r="C17" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="D18" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="B20" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C16" t="s">
+    <row r="21" spans="1:4">
+      <c r="C21" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B18" t="s">
+    <row r="23" spans="1:4">
+      <c r="B23" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C19" t="s">
+    <row r="24" spans="1:4">
+      <c r="C24" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B21" t="s">
+    <row r="26" spans="1:4">
+      <c r="B26" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C22" t="s">
+    <row r="27" spans="1:4">
+      <c r="C27" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+    <row r="30" spans="1:4">
+      <c r="A30" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B26" t="s">
+    <row r="31" spans="1:4">
+      <c r="B31" t="s">
         <v>10</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C31" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C27" t="s">
+    <row r="32" spans="1:4">
+      <c r="C32" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B29" t="s">
+    <row r="34" spans="2:3">
+      <c r="B34" t="s">
         <v>7</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C34" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C30" t="s">
+    <row r="35" spans="2:3">
+      <c r="C35" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C31" t="s">
+    <row r="36" spans="2:3">
+      <c r="C36" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B33" t="s">
+    <row r="38" spans="2:3">
+      <c r="B38" t="s">
         <v>3</v>
       </c>
-      <c r="C33" t="s">
+      <c r="C38" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C34" t="s">
+    <row r="39" spans="2:3">
+      <c r="C39" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C35" t="s">
+    <row r="40" spans="2:3">
+      <c r="C40" t="s">
         <v>0</v>
       </c>
     </row>
+    <row r="81" spans="1:1">
+      <c r="A81" t="s">
+        <v>126</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{000A1C9F-4816-4394-AB52-7E6C5AD27CB8}">
-  <dimension ref="A1:K137"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:K138"/>
   <sheetViews>
-    <sheetView topLeftCell="A91" workbookViewId="0">
-      <selection activeCell="C138" sqref="C138"/>
+    <sheetView topLeftCell="A97" workbookViewId="0">
+      <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8">
       <c r="A3" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8">
       <c r="B4" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8">
       <c r="C5" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8">
       <c r="C6" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8">
       <c r="H8" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="24" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:11">
       <c r="B24" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="25" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:11">
       <c r="C25" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="26" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:11">
       <c r="C26" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="29" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:11">
       <c r="K29" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2">
       <c r="A55" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2">
       <c r="B56" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:2">
       <c r="B57" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:2">
       <c r="B59" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:2">
       <c r="B60" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:2">
       <c r="B61" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:2">
       <c r="B63" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="75" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:3">
       <c r="B75" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="76" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:3">
       <c r="C76" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="77" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:3">
       <c r="C77" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="78" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:3">
       <c r="C78" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="100" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:3">
       <c r="B100" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="101" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:3">
       <c r="C101" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="102" spans="2:3">
+      <c r="C102" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="103" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C103" t="s">
+    <row r="104" spans="2:3">
+      <c r="C104" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="137" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B137" t="s">
+    <row r="138" spans="2:2">
+      <c r="B138" t="s">
         <v>52</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F33DB55D-888C-49D5-AD19-36697BA55FF8}">
-  <dimension ref="A1:D109"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:R109"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E114" sqref="E114"/>
+    <sheetView topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="Q69" sqref="Q69"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3">
       <c r="B2" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3">
       <c r="C3" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3">
       <c r="B4" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3">
       <c r="C5" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3">
       <c r="B6" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3">
       <c r="C7" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3">
       <c r="B8" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3">
       <c r="C9" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3">
       <c r="B10" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3">
       <c r="C11" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3">
       <c r="A15" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3">
       <c r="B16" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:2">
       <c r="B17" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:2">
       <c r="B18" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:2">
       <c r="B19" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:2">
       <c r="B21" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:2">
       <c r="B22" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:2">
       <c r="B23" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="36" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:4">
       <c r="B36" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="37" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:4">
       <c r="C37" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="38" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:4">
       <c r="C38" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="39" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:4">
       <c r="C39" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="41" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:4">
       <c r="B41" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="42" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:4">
       <c r="C42" t="s">
         <v>10</v>
       </c>
@@ -1708,7 +2121,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="43" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:4">
       <c r="C43" t="s">
         <v>76</v>
       </c>
@@ -1716,12 +2129,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="44" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:4">
       <c r="D44" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="45" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:4">
       <c r="C45" t="s">
         <v>7</v>
       </c>
@@ -1729,12 +2142,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="46" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:4">
       <c r="D46" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="47" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:4">
       <c r="C47" t="s">
         <v>3</v>
       </c>
@@ -1742,258 +2155,271 @@
         <v>2</v>
       </c>
     </row>
-    <row r="48" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:4">
       <c r="D48" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:18">
       <c r="A65" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:18">
+      <c r="Q66" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="67" spans="1:18">
+      <c r="R67" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2">
       <c r="A88" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:2">
       <c r="B89" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:2">
       <c r="B90" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:2">
       <c r="B91" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:2">
       <c r="A101" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:2">
       <c r="B102" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:2">
       <c r="B103" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:2">
       <c r="A105" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:2">
       <c r="B106" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:2">
       <c r="B107" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:2">
       <c r="B109" t="s">
         <v>91</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88F1EF14-B08E-42CB-A8E5-D64B825EC4B8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:D25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4">
       <c r="B2" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4">
       <c r="B4" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4">
       <c r="C5" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4">
       <c r="D6" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4">
       <c r="C7" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4">
       <c r="D8" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4">
       <c r="C9" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4">
       <c r="D10" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4">
       <c r="D11" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4">
       <c r="D12" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4">
       <c r="C13" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4">
       <c r="D14" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4">
       <c r="C15" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4">
       <c r="D16" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4">
       <c r="D17" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4">
       <c r="C18" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4">
       <c r="D19" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4">
       <c r="A21" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4">
       <c r="B22" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4">
       <c r="B23" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4">
       <c r="B25" t="s">
         <v>113</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{693D80E2-C002-444D-BE26-1E648755876B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="N13" sqref="N13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2">
       <c r="B2" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2">
       <c r="B3" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2">
       <c r="A5" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2">
       <c r="B6" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2">
       <c r="B7" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2">
       <c r="B8" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2">
       <c r="A10" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2">
       <c r="B11" t="s">
         <v>122</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Brain/Azure/Microsoft Azure Fundamentals/Describe Azure architecture and services/Describe Azure storage services.xlsx
+++ b/Brain/Azure/Microsoft Azure Fundamentals/Describe Azure architecture and services/Describe Azure storage services.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\Study\Brain\Azure\Microsoft Azure Fundamentals\Describe Azure architecture and services\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bp.thai.dh\Downloads\Microsoft Azure Fundamentals\Describe Azure architecture and services\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E734F06F-DB68-4E32-B841-F6F4CC8982A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720"/>
   </bookViews>
   <sheets>
     <sheet name="Describe Azure storage accounts" sheetId="2" r:id="rId1"/>
@@ -426,18 +425,18 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="游ゴシック"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="6"/>
-      <name val="Calibri"/>
+      <name val="游ゴシック"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -613,94 +612,6 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>91</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>331705</xdr:colOff>
-      <xdr:row>102</xdr:row>
-      <xdr:rowOff>9196</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Picture 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="21193125"/>
-          <a:ext cx="13361905" cy="2628571"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>103</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>331705</xdr:colOff>
-      <xdr:row>114</xdr:row>
-      <xdr:rowOff>9196</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="Picture 5">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="24050625"/>
-          <a:ext cx="13361905" cy="2628571"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
       <xdr:col>15</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>41</xdr:row>
@@ -726,7 +637,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -770,7 +681,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1657,16 +1568,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
       <selection activeCell="P50" sqref="P50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>123</v>
       </c>
@@ -1674,107 +1585,107 @@
         <v>124</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B5" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
       <c r="C6" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
       <c r="C7" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
       <c r="C9" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.4">
       <c r="C10" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.4">
       <c r="C11" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.4">
       <c r="C12" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B14" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.4">
       <c r="C15" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.4">
       <c r="C16" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.4">
       <c r="C17" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.4">
       <c r="D18" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B20" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.4">
       <c r="C21" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B23" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.4">
       <c r="C24" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B26" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.4">
       <c r="C27" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="30" spans="1:4">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A30" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="31" spans="1:4">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B31" t="s">
         <v>10</v>
       </c>
@@ -1782,12 +1693,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="32" spans="1:4">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.4">
       <c r="C32" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="34" spans="2:3">
+    <row r="34" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B34" t="s">
         <v>7</v>
       </c>
@@ -1795,17 +1706,17 @@
         <v>6</v>
       </c>
     </row>
-    <row r="35" spans="2:3">
+    <row r="35" spans="2:3" x14ac:dyDescent="0.4">
       <c r="C35" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="36" spans="2:3">
+    <row r="36" spans="2:3" x14ac:dyDescent="0.4">
       <c r="C36" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="38" spans="2:3">
+    <row r="38" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B38" t="s">
         <v>3</v>
       </c>
@@ -1813,17 +1724,17 @@
         <v>2</v>
       </c>
     </row>
-    <row r="39" spans="2:3">
+    <row r="39" spans="2:3" x14ac:dyDescent="0.4">
       <c r="C39" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="2:3">
+    <row r="40" spans="2:3" x14ac:dyDescent="0.4">
       <c r="C40" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:1">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A81" t="s">
         <v>126</v>
       </c>
@@ -1836,141 +1747,141 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K138"/>
   <sheetViews>
     <sheetView topLeftCell="A97" workbookViewId="0">
       <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B4" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C5" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C6" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
       <c r="H8" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="24" spans="2:11">
+    <row r="24" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B24" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="25" spans="2:11">
+    <row r="25" spans="2:11" x14ac:dyDescent="0.4">
       <c r="C25" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="26" spans="2:11">
+    <row r="26" spans="2:11" x14ac:dyDescent="0.4">
       <c r="C26" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="29" spans="2:11">
+    <row r="29" spans="2:11" x14ac:dyDescent="0.4">
       <c r="K29" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="55" spans="1:2">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A55" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="56" spans="1:2">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B56" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="57" spans="1:2">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B57" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="59" spans="1:2">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B59" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="60" spans="1:2">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B60" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="61" spans="1:2">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B61" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="63" spans="1:2">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B63" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="75" spans="2:3">
+    <row r="75" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B75" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="76" spans="2:3">
+    <row r="76" spans="2:3" x14ac:dyDescent="0.4">
       <c r="C76" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="77" spans="2:3">
+    <row r="77" spans="2:3" x14ac:dyDescent="0.4">
       <c r="C77" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="78" spans="2:3">
+    <row r="78" spans="2:3" x14ac:dyDescent="0.4">
       <c r="C78" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="100" spans="2:3">
+    <row r="100" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B100" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="101" spans="2:3">
+    <row r="101" spans="2:3" x14ac:dyDescent="0.4">
       <c r="C101" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="102" spans="2:3">
+    <row r="102" spans="2:3" x14ac:dyDescent="0.4">
       <c r="C102" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="104" spans="2:3">
+    <row r="104" spans="2:3" x14ac:dyDescent="0.4">
       <c r="C104" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="138" spans="2:2">
+    <row r="138" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B138" t="s">
         <v>52</v>
       </c>
@@ -1984,136 +1895,136 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R109"/>
   <sheetViews>
     <sheetView topLeftCell="A58" workbookViewId="0">
       <selection activeCell="Q69" sqref="Q69"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
       <c r="B2" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
       <c r="C3" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
       <c r="B4" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
       <c r="C5" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
       <c r="B6" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
       <c r="C7" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
       <c r="B8" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
       <c r="C9" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
       <c r="B10" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
       <c r="C11" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.4">
       <c r="B16" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="17" spans="2:2">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B17" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="18" spans="2:2">
+    <row r="18" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B18" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="19" spans="2:2">
+    <row r="19" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B19" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="21" spans="2:2">
+    <row r="21" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B21" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="22" spans="2:2">
+    <row r="22" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B22" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="23" spans="2:2">
+    <row r="23" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B23" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="36" spans="2:4">
+    <row r="36" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B36" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="37" spans="2:4">
+    <row r="37" spans="2:4" x14ac:dyDescent="0.4">
       <c r="C37" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="38" spans="2:4">
+    <row r="38" spans="2:4" x14ac:dyDescent="0.4">
       <c r="C38" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="39" spans="2:4">
+    <row r="39" spans="2:4" x14ac:dyDescent="0.4">
       <c r="C39" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="41" spans="2:4">
+    <row r="41" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B41" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="42" spans="2:4">
+    <row r="42" spans="2:4" x14ac:dyDescent="0.4">
       <c r="C42" t="s">
         <v>10</v>
       </c>
@@ -2121,7 +2032,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="43" spans="2:4">
+    <row r="43" spans="2:4" x14ac:dyDescent="0.4">
       <c r="C43" t="s">
         <v>76</v>
       </c>
@@ -2129,12 +2040,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="44" spans="2:4">
+    <row r="44" spans="2:4" x14ac:dyDescent="0.4">
       <c r="D44" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="45" spans="2:4">
+    <row r="45" spans="2:4" x14ac:dyDescent="0.4">
       <c r="C45" t="s">
         <v>7</v>
       </c>
@@ -2142,12 +2053,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="46" spans="2:4">
+    <row r="46" spans="2:4" x14ac:dyDescent="0.4">
       <c r="D46" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="47" spans="2:4">
+    <row r="47" spans="2:4" x14ac:dyDescent="0.4">
       <c r="C47" t="s">
         <v>3</v>
       </c>
@@ -2155,77 +2066,77 @@
         <v>2</v>
       </c>
     </row>
-    <row r="48" spans="2:4">
+    <row r="48" spans="2:4" x14ac:dyDescent="0.4">
       <c r="D48" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="65" spans="1:18">
+    <row r="65" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A65" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="66" spans="1:18">
+    <row r="66" spans="1:18" x14ac:dyDescent="0.4">
       <c r="Q66" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="67" spans="1:18">
+    <row r="67" spans="1:18" x14ac:dyDescent="0.4">
       <c r="R67" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="88" spans="1:2">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A88" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="89" spans="1:2">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B89" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="90" spans="1:2">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B90" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="91" spans="1:2">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B91" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="101" spans="1:2">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A101" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="102" spans="1:2">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B102" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="103" spans="1:2">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B103" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="105" spans="1:2">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A105" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="106" spans="1:2">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B106" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="107" spans="1:2">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B107" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="109" spans="1:2">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B109" t="s">
         <v>91</v>
       </c>
@@ -2238,121 +2149,121 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B2" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B4" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
       <c r="C5" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
       <c r="D6" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
       <c r="C7" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
       <c r="D8" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
       <c r="C9" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.4">
       <c r="D10" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.4">
       <c r="D11" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.4">
       <c r="D12" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.4">
       <c r="C13" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.4">
       <c r="D14" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.4">
       <c r="C15" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.4">
       <c r="D16" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.4">
       <c r="D17" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.4">
       <c r="C18" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.4">
       <c r="D19" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A21" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B22" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B23" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B25" t="s">
         <v>113</v>
       </c>
@@ -2364,56 +2275,56 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="N13" sqref="N13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B2" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B3" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B6" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B7" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B8" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B11" t="s">
         <v>122</v>
       </c>

--- a/Brain/Azure/Microsoft Azure Fundamentals/Describe Azure architecture and services/Describe Azure storage services.xlsx
+++ b/Brain/Azure/Microsoft Azure Fundamentals/Describe Azure architecture and services/Describe Azure storage services.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="130">
   <si>
     <t>such as long-term backups</t>
   </si>
@@ -419,6 +419,10 @@
   </si>
   <si>
     <t>PaaS</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>on ly general purpose v2</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -690,6 +694,82 @@
         <a:xfrm>
           <a:off x="9144000" y="9334500"/>
           <a:ext cx="11180781" cy="1523762"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>17419</xdr:colOff>
+      <xdr:row>108</xdr:row>
+      <xdr:rowOff>85238</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="21907500"/>
+          <a:ext cx="13047619" cy="3895238"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>109</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>656200</xdr:colOff>
+      <xdr:row>135</xdr:row>
+      <xdr:rowOff>123036</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="25955625"/>
+          <a:ext cx="8200000" cy="6314286"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1070,6 +1150,44 @@
         <a:xfrm>
           <a:off x="11658600" y="25003125"/>
           <a:ext cx="13361905" cy="2552381"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>118</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>512657</xdr:colOff>
+      <xdr:row>126</xdr:row>
+      <xdr:rowOff>18810</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="Picture 10"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11658600" y="28098750"/>
+          <a:ext cx="13542857" cy="1923810"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1571,8 +1689,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="P50" sqref="P50"/>
+    <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
+      <selection activeCell="A110" sqref="A110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1748,10 +1866,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K138"/>
+  <dimension ref="A1:R138"/>
   <sheetViews>
-    <sheetView topLeftCell="A97" workbookViewId="0">
-      <selection activeCell="J21" sqref="J21"/>
+    <sheetView topLeftCell="A118" workbookViewId="0">
+      <selection activeCell="U99" sqref="U99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1879,6 +1997,11 @@
     <row r="104" spans="2:3" x14ac:dyDescent="0.4">
       <c r="C104" t="s">
         <v>50</v>
+      </c>
+    </row>
+    <row r="118" spans="18:18" x14ac:dyDescent="0.4">
+      <c r="R118" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="138" spans="2:2" x14ac:dyDescent="0.4">
